--- a/error and od energy graphs.xlsx
+++ b/error and od energy graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rowan\Documents\4_1\SENG 440\SENG440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D81A7D-1386-4F6D-B890-7602FD9FA9CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68CF561-4668-46FB-BD94-C7FCFFD93AD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11040" xr2:uid="{58A596E5-29EC-46F3-858E-E71775A0D2CA}"/>
   </bookViews>
